--- a/INPUT/FIT.xlsx
+++ b/INPUT/FIT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects2\MDD\INPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FBA8F4-01FC-4561-9761-9FF4168DA684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9858FB-862A-4B61-AF84-8D01406E2B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="4104" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CROSS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="173">
   <si>
     <t>OE 1</t>
   </si>
@@ -549,6 +549,9 @@
   </si>
   <si>
     <t>Joint bas de porte bois longueur 2500 mm</t>
+  </si>
+  <si>
+    <t>FIT.JPG</t>
   </si>
 </sst>
 </file>
@@ -1463,129 +1466,129 @@
   <dimension ref="A1:DJ291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+      <selection activeCell="D2" sqref="D2:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="70.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="70.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" style="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="115" max="16384" width="14.7109375" style="1"/>
+    <col min="13" max="13" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.26953125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="48.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="115" max="16384" width="14.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>116</v>
@@ -1953,7 +1956,7 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>117</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>118</v>
@@ -1980,7 +1983,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>121</v>
@@ -2009,7 +2012,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>124</v>
@@ -2038,7 +2041,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>126</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>127</v>
@@ -2067,7 +2070,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>129</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>130</v>
@@ -2096,7 +2099,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>132</v>
       </c>
@@ -2107,7 +2110,7 @@
         <v>114</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>133</v>
@@ -2125,7 +2128,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>135</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>114</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>136</v>
@@ -2154,7 +2157,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>137</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>114</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>138</v>
@@ -2176,7 +2179,7 @@
       <c r="K10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>139</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>114</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>140</v>
@@ -2198,7 +2201,7 @@
       <c r="K11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>141</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>114</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>142</v>
@@ -2220,7 +2223,7 @@
       <c r="K12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>143</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>144</v>
@@ -2242,7 +2245,7 @@
       <c r="K13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>145</v>
       </c>
@@ -2253,7 +2256,7 @@
         <v>114</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>146</v>
@@ -2264,7 +2267,7 @@
       <c r="K14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>147</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>114</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>150</v>
@@ -2289,7 +2292,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>148</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>114</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>151</v>
@@ -2314,7 +2317,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>149</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>114</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>152</v>
@@ -2339,7 +2342,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>154</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>114</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>156</v>
@@ -2362,7 +2365,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>158</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>114</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>159</v>
@@ -2382,7 +2385,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>160</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>114</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>162</v>
@@ -2405,7 +2408,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>161</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>114</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>163</v>
@@ -2428,7 +2431,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>166</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>114</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>167</v>
@@ -2448,7 +2451,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>168</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>114</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>169</v>
@@ -2468,7 +2471,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>170</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>114</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>171</v>
@@ -2488,27 +2491,27 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="56" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -2516,7 +2519,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -2524,31 +2527,31 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
     </row>
-    <row r="62" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K62" s="3"/>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K63" s="3"/>
       <c r="N63" s="3"/>
     </row>
-    <row r="66" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K69" s="4"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="72" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -2556,7 +2559,7 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
     </row>
-    <row r="73" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -2564,255 +2567,255 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
     </row>
-    <row r="80" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K80" s="6"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K81" s="6"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="83" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
     </row>
-    <row r="85" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
     </row>
-    <row r="90" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J90" s="8"/>
       <c r="M90" s="8"/>
     </row>
-    <row r="91" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J91" s="8"/>
       <c r="M91" s="8"/>
     </row>
-    <row r="92" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J92" s="8"/>
       <c r="M92" s="8"/>
     </row>
-    <row r="93" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J93" s="8"/>
       <c r="M93" s="8"/>
     </row>
-    <row r="97" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J97" s="8"/>
       <c r="M97" s="8"/>
     </row>
-    <row r="98" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J98" s="8"/>
       <c r="M98" s="8"/>
     </row>
-    <row r="99" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J99" s="8"/>
       <c r="M99" s="8"/>
     </row>
-    <row r="100" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K100" s="4"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K101" s="4"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K102" s="4"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K103" s="4"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K104" s="4"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K105" s="4"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="118" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I118" s="3"/>
       <c r="K118" s="2"/>
       <c r="L118" s="3"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I119" s="3"/>
       <c r="K119" s="2"/>
       <c r="L119" s="3"/>
       <c r="N119" s="2"/>
     </row>
-    <row r="130" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K130" s="2"/>
       <c r="N130" s="2"/>
     </row>
-    <row r="131" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K131" s="2"/>
       <c r="N131" s="2"/>
     </row>
-    <row r="134" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I134" s="3"/>
       <c r="K134" s="2"/>
       <c r="L134" s="3"/>
       <c r="N134" s="2"/>
     </row>
-    <row r="135" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I135" s="3"/>
       <c r="K135" s="2"/>
       <c r="L135" s="3"/>
       <c r="N135" s="2"/>
     </row>
-    <row r="136" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K136" s="2"/>
       <c r="N136" s="2"/>
     </row>
-    <row r="137" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K137" s="2"/>
       <c r="N137" s="2"/>
     </row>
-    <row r="138" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K138" s="2"/>
       <c r="N138" s="2"/>
     </row>
-    <row r="139" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K139" s="2"/>
       <c r="N139" s="2"/>
     </row>
-    <row r="140" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K140" s="2"/>
       <c r="N140" s="2"/>
     </row>
-    <row r="141" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K141" s="2"/>
       <c r="N141" s="2"/>
     </row>
-    <row r="150" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I150" s="3"/>
       <c r="K150" s="2"/>
       <c r="L150" s="3"/>
       <c r="N150" s="2"/>
     </row>
-    <row r="166" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I166" s="3"/>
       <c r="K166" s="2"/>
       <c r="L166" s="3"/>
       <c r="N166" s="2"/>
     </row>
-    <row r="167" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I167" s="3"/>
       <c r="K167" s="2"/>
       <c r="L167" s="3"/>
       <c r="N167" s="2"/>
     </row>
-    <row r="178" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I178" s="3"/>
       <c r="K178" s="2"/>
       <c r="L178" s="3"/>
       <c r="N178" s="2"/>
     </row>
-    <row r="179" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I179" s="3"/>
       <c r="K179" s="2"/>
       <c r="L179" s="3"/>
       <c r="N179" s="2"/>
     </row>
-    <row r="184" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K184" s="2"/>
       <c r="N184" s="2"/>
     </row>
-    <row r="185" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K185" s="2"/>
       <c r="N185" s="2"/>
     </row>
-    <row r="188" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K188" s="2"/>
       <c r="N188" s="2"/>
     </row>
-    <row r="189" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K189" s="2"/>
       <c r="N189" s="2"/>
     </row>
-    <row r="226" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K226" s="2"/>
       <c r="N226" s="2"/>
     </row>
-    <row r="244" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K244" s="2"/>
       <c r="N244" s="2"/>
     </row>
-    <row r="245" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K245" s="2"/>
       <c r="N245" s="2"/>
     </row>
-    <row r="248" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K248" s="2"/>
       <c r="N248" s="2"/>
     </row>
-    <row r="249" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K249" s="2"/>
       <c r="N249" s="2"/>
     </row>
-    <row r="254" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I254" s="3"/>
       <c r="K254" s="2"/>
       <c r="L254" s="3"/>
       <c r="N254" s="2"/>
     </row>
-    <row r="255" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I255" s="3"/>
       <c r="K255" s="2"/>
       <c r="L255" s="3"/>
       <c r="N255" s="2"/>
     </row>
-    <row r="268" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K268" s="2"/>
       <c r="N268" s="2"/>
     </row>
-    <row r="269" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K269" s="2"/>
       <c r="N269" s="2"/>
     </row>
-    <row r="277" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I277" s="3"/>
       <c r="K277" s="2"/>
       <c r="L277" s="3"/>
       <c r="N277" s="2"/>
     </row>
-    <row r="278" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I278" s="3"/>
       <c r="K278" s="2"/>
       <c r="L278" s="3"/>
       <c r="N278" s="2"/>
     </row>
-    <row r="279" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I279" s="3"/>
       <c r="K279" s="2"/>
       <c r="L279" s="3"/>
       <c r="N279" s="2"/>
     </row>
-    <row r="280" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I280" s="3"/>
       <c r="K280" s="2"/>
       <c r="L280" s="3"/>
       <c r="N280" s="2"/>
     </row>
-    <row r="281" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I281" s="3"/>
       <c r="K281" s="2"/>
       <c r="L281" s="3"/>
       <c r="N281" s="2"/>
     </row>
-    <row r="291" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I291" s="3"/>
       <c r="L291" s="3"/>
     </row>
